--- a/sourceData/pengeluaran.xlsx
+++ b/sourceData/pengeluaran.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\binus\gemastik\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hendry\Documents\GitHub\gemastik_time_series\sourceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2603A935-8ACC-4C79-8963-72AA94545646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07A6CAC9-76EC-4DBE-B0E7-413057D648FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table" sheetId="2" r:id="rId1"/>
@@ -20,114 +20,117 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ACEH</t>
   </si>
   <si>
+    <t>SUMATERA BARAT</t>
+  </si>
+  <si>
+    <t>RIAU</t>
+  </si>
+  <si>
+    <t>JAMBI</t>
+  </si>
+  <si>
+    <t>SUMATERA SELATAN</t>
+  </si>
+  <si>
+    <t>BENGKULU</t>
+  </si>
+  <si>
+    <t>LAMPUNG</t>
+  </si>
+  <si>
+    <t>KEPULAUAN RIAU</t>
+  </si>
+  <si>
+    <t>DKI JAKARTA</t>
+  </si>
+  <si>
+    <t>JAWA BARAT</t>
+  </si>
+  <si>
+    <t>JAWA TENGAH</t>
+  </si>
+  <si>
+    <t>JAWA TIMUR</t>
+  </si>
+  <si>
+    <t>BANTEN</t>
+  </si>
+  <si>
+    <t>BALI</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA BARAT</t>
+  </si>
+  <si>
+    <t>NUSA TENGGARA TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN BARAT</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TENGAH</t>
+  </si>
+  <si>
+    <t>KALIMANTAN SELATAN</t>
+  </si>
+  <si>
+    <t>KALIMANTAN TIMUR</t>
+  </si>
+  <si>
+    <t>KALIMANTAN UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI UTARA</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGAH</t>
+  </si>
+  <si>
+    <t>SULAWESI SELATAN</t>
+  </si>
+  <si>
+    <t>SULAWESI TENGGARA</t>
+  </si>
+  <si>
+    <t>GORONTALO</t>
+  </si>
+  <si>
+    <t>SULAWESI BARAT</t>
+  </si>
+  <si>
+    <t>MALUKU</t>
+  </si>
+  <si>
+    <t>MALUKU UTARA</t>
+  </si>
+  <si>
+    <t>PAPUA BARAT</t>
+  </si>
+  <si>
+    <t>PAPUA</t>
+  </si>
+  <si>
+    <t>Provinsi</t>
+  </si>
+  <si>
+    <t>KEPULAUAN BANGKA BELITUNG</t>
+  </si>
+  <si>
     <t>SUMATERA UTARA</t>
   </si>
   <si>
-    <t>SUMATERA BARAT</t>
-  </si>
-  <si>
-    <t>RIAU</t>
-  </si>
-  <si>
-    <t>JAMBI</t>
-  </si>
-  <si>
-    <t>SUMATERA SELATAN</t>
-  </si>
-  <si>
-    <t>BENGKULU</t>
-  </si>
-  <si>
-    <t>LAMPUNG</t>
-  </si>
-  <si>
-    <t>KEPULAUAN RIAU</t>
-  </si>
-  <si>
-    <t>DKI JAKARTA</t>
-  </si>
-  <si>
-    <t>JAWA BARAT</t>
-  </si>
-  <si>
-    <t>JAWA TENGAH</t>
-  </si>
-  <si>
-    <t>D I YOGYAKARTA</t>
-  </si>
-  <si>
-    <t>BANTEN</t>
-  </si>
-  <si>
-    <t>BALI</t>
-  </si>
-  <si>
-    <t>NUSA TENGGARA BARAT</t>
-  </si>
-  <si>
-    <t>NUSA TENGGARA TIMUR</t>
-  </si>
-  <si>
-    <t>KALIMANTAN BARAT</t>
-  </si>
-  <si>
-    <t>KALIMANTAN TENGAH</t>
-  </si>
-  <si>
-    <t>KALIMANTAN SELATAN</t>
-  </si>
-  <si>
-    <t>KALIMANTAN TIMUR</t>
-  </si>
-  <si>
-    <t>KALIMANTAN UTARA</t>
-  </si>
-  <si>
-    <t>SULAWESI UTARA</t>
-  </si>
-  <si>
-    <t>SULAWESI TENGAH</t>
-  </si>
-  <si>
-    <t>SULAWESI SELATAN</t>
-  </si>
-  <si>
-    <t>SULAWESI TENGGARA</t>
-  </si>
-  <si>
-    <t>GORONTALO</t>
-  </si>
-  <si>
-    <t>SULAWESI BARAT</t>
-  </si>
-  <si>
-    <t>MALUKU</t>
-  </si>
-  <si>
-    <t>MALUKU UTARA</t>
-  </si>
-  <si>
-    <t>PAPUA BARAT</t>
-  </si>
-  <si>
-    <t>PAPUA</t>
-  </si>
-  <si>
-    <t>Provinsi</t>
-  </si>
-  <si>
-    <t>KEPULAUAN BANGKA BELITUNG</t>
+    <t>DI YOGYAKARTA</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1014,22 +1017,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="9" width="8.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="53" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B1" s="1">
         <v>2022</v>
@@ -1056,7 +1059,7 @@
         <v>2015</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="23" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1085,9 +1088,9 @@
         <v>8533</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
+    <row r="3" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="B3" s="5">
         <v>10848</v>
@@ -1114,9 +1117,9 @@
         <v>9563</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="33.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4" s="4">
         <v>11130</v>
@@ -1145,7 +1148,7 @@
     </row>
     <row r="5" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="5">
         <v>11158</v>
@@ -1174,7 +1177,7 @@
     </row>
     <row r="6" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4">
         <v>10871</v>
@@ -1203,7 +1206,7 @@
     </row>
     <row r="7" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5">
         <v>11109</v>
@@ -1232,7 +1235,7 @@
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4">
         <v>10840</v>
@@ -1261,7 +1264,7 @@
     </row>
     <row r="9" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" s="5">
         <v>10336</v>
@@ -1290,7 +1293,7 @@
     </row>
     <row r="10" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="4">
         <v>13358</v>
@@ -1319,7 +1322,7 @@
     </row>
     <row r="11" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="5">
         <v>14469</v>
@@ -1348,7 +1351,7 @@
     </row>
     <row r="12" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B12" s="4">
         <v>18927</v>
@@ -1377,7 +1380,7 @@
     </row>
     <row r="13" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="5">
         <v>11277</v>
@@ -1406,7 +1409,7 @@
     </row>
     <row r="14" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B14" s="4">
         <v>11377</v>
@@ -1435,7 +1438,7 @@
     </row>
     <row r="15" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="B15" s="5">
         <v>14482</v>
@@ -1464,557 +1467,586 @@
     </row>
     <row r="16" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B16" s="4">
-        <v>12216</v>
+        <v>11992</v>
       </c>
       <c r="C16" s="4">
-        <v>12033</v>
+        <v>11707</v>
       </c>
       <c r="D16" s="4">
-        <v>11964</v>
+        <v>11601</v>
       </c>
       <c r="E16" s="4">
-        <v>12267</v>
+        <v>11739</v>
       </c>
       <c r="F16" s="4">
-        <v>11994</v>
+        <v>11380</v>
       </c>
       <c r="G16" s="4">
-        <v>11659</v>
+        <v>10973</v>
       </c>
       <c r="H16" s="4">
-        <v>11469</v>
+        <v>10715</v>
       </c>
       <c r="I16" s="4">
-        <v>11261</v>
+        <v>10383</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B17" s="5">
-        <v>13942</v>
+        <v>12216</v>
       </c>
       <c r="C17" s="5">
-        <v>13820</v>
+        <v>12033</v>
       </c>
       <c r="D17" s="5">
-        <v>13929</v>
+        <v>11964</v>
       </c>
       <c r="E17" s="5">
-        <v>14146</v>
+        <v>12267</v>
       </c>
       <c r="F17" s="5">
-        <v>13886</v>
+        <v>11994</v>
       </c>
       <c r="G17" s="5">
-        <v>13573</v>
+        <v>11659</v>
       </c>
       <c r="H17" s="5">
-        <v>13279</v>
+        <v>11469</v>
       </c>
       <c r="I17" s="5">
-        <v>13078</v>
+        <v>11261</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="4">
-        <v>10681</v>
+        <v>13942</v>
       </c>
       <c r="C18" s="4">
-        <v>10377</v>
+        <v>13820</v>
       </c>
       <c r="D18" s="4">
-        <v>10351</v>
+        <v>13929</v>
       </c>
       <c r="E18" s="4">
-        <v>10640</v>
+        <v>14146</v>
       </c>
       <c r="F18" s="4">
-        <v>10284</v>
+        <v>13886</v>
       </c>
       <c r="G18" s="4">
-        <v>9877</v>
+        <v>13573</v>
       </c>
       <c r="H18" s="4">
-        <v>9575</v>
+        <v>13279</v>
       </c>
       <c r="I18" s="4">
-        <v>9241</v>
+        <v>13078</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="5">
-        <v>7877</v>
+        <v>10681</v>
       </c>
       <c r="C19" s="5">
-        <v>7554</v>
+        <v>10377</v>
       </c>
       <c r="D19" s="5">
-        <v>7598</v>
+        <v>10351</v>
       </c>
       <c r="E19" s="5">
-        <v>7769</v>
+        <v>10640</v>
       </c>
       <c r="F19" s="5">
-        <v>7566</v>
+        <v>10284</v>
       </c>
       <c r="G19" s="5">
-        <v>7350</v>
+        <v>9877</v>
       </c>
       <c r="H19" s="5">
-        <v>7122</v>
+        <v>9575</v>
       </c>
       <c r="I19" s="5">
-        <v>7003</v>
+        <v>9241</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="4">
-        <v>9355</v>
+        <v>7877</v>
       </c>
       <c r="C20" s="4">
-        <v>8974</v>
+        <v>7554</v>
       </c>
       <c r="D20" s="4">
-        <v>8930</v>
+        <v>7598</v>
       </c>
       <c r="E20" s="4">
-        <v>9055</v>
+        <v>7769</v>
       </c>
       <c r="F20" s="4">
-        <v>8860</v>
+        <v>7566</v>
       </c>
       <c r="G20" s="4">
-        <v>8472</v>
+        <v>7350</v>
       </c>
       <c r="H20" s="4">
-        <v>8348</v>
+        <v>7122</v>
       </c>
       <c r="I20" s="4">
-        <v>8279</v>
+        <v>7003</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="5">
-        <v>11458</v>
+        <v>9355</v>
       </c>
       <c r="C21" s="5">
-        <v>11182</v>
+        <v>8974</v>
       </c>
       <c r="D21" s="5">
-        <v>11154</v>
+        <v>8930</v>
       </c>
       <c r="E21" s="5">
-        <v>11236</v>
+        <v>9055</v>
       </c>
       <c r="F21" s="5">
-        <v>10931</v>
+        <v>8860</v>
       </c>
       <c r="G21" s="5">
-        <v>10492</v>
+        <v>8472</v>
       </c>
       <c r="H21" s="5">
-        <v>10155</v>
+        <v>8348</v>
       </c>
       <c r="I21" s="5">
-        <v>9809</v>
+        <v>8279</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="4">
-        <v>12469</v>
+        <v>11458</v>
       </c>
       <c r="C22" s="4">
-        <v>12143</v>
+        <v>11182</v>
       </c>
       <c r="D22" s="4">
-        <v>12032</v>
+        <v>11154</v>
       </c>
       <c r="E22" s="4">
-        <v>12253</v>
+        <v>11236</v>
       </c>
       <c r="F22" s="4">
-        <v>12062</v>
+        <v>10931</v>
       </c>
       <c r="G22" s="4">
-        <v>11600</v>
+        <v>10492</v>
       </c>
       <c r="H22" s="4">
-        <v>11307</v>
+        <v>10155</v>
       </c>
       <c r="I22" s="4">
-        <v>10891</v>
+        <v>9809</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="5">
-        <v>12641</v>
+        <v>12469</v>
       </c>
       <c r="C23" s="5">
-        <v>12116</v>
+        <v>12143</v>
       </c>
       <c r="D23" s="5">
-        <v>11728</v>
+        <v>12032</v>
       </c>
       <c r="E23" s="5">
-        <v>12359</v>
+        <v>12253</v>
       </c>
       <c r="F23" s="5">
-        <v>11917</v>
+        <v>12062</v>
       </c>
       <c r="G23" s="5">
-        <v>11612</v>
+        <v>11600</v>
       </c>
       <c r="H23" s="5">
-        <v>11355</v>
+        <v>11307</v>
       </c>
       <c r="I23" s="5">
-        <v>11229</v>
+        <v>10891</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="4">
-        <v>9350</v>
+        <v>12641</v>
       </c>
       <c r="C24" s="4">
-        <v>9075</v>
+        <v>12116</v>
       </c>
       <c r="D24" s="4">
-        <v>8756</v>
+        <v>11728</v>
       </c>
       <c r="E24" s="4">
-        <v>9343</v>
+        <v>12359</v>
       </c>
       <c r="F24" s="4">
-        <v>8943</v>
+        <v>11917</v>
       </c>
       <c r="G24" s="4">
-        <v>8643</v>
+        <v>11612</v>
       </c>
       <c r="H24" s="4">
-        <v>8434</v>
+        <v>11355</v>
       </c>
       <c r="I24" s="4">
-        <v>8354</v>
+        <v>11229</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="5">
-        <v>11179</v>
+        <v>9350</v>
       </c>
       <c r="C25" s="5">
-        <v>10882</v>
+        <v>9075</v>
       </c>
       <c r="D25" s="5">
-        <v>10791</v>
+        <v>8756</v>
       </c>
       <c r="E25" s="5">
-        <v>11115</v>
+        <v>9343</v>
       </c>
       <c r="F25" s="5">
-        <v>10731</v>
+        <v>8943</v>
       </c>
       <c r="G25" s="5">
-        <v>10422</v>
+        <v>8643</v>
       </c>
       <c r="H25" s="5">
-        <v>10148</v>
+        <v>8434</v>
       </c>
       <c r="I25" s="5">
-        <v>9729</v>
+        <v>8354</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="4">
-        <v>9696</v>
+        <v>11179</v>
       </c>
       <c r="C26" s="4">
-        <v>9378</v>
+        <v>10882</v>
       </c>
       <c r="D26" s="4">
-        <v>9335</v>
+        <v>10791</v>
       </c>
       <c r="E26" s="4">
-        <v>9604</v>
+        <v>11115</v>
       </c>
       <c r="F26" s="4">
-        <v>9488</v>
+        <v>10731</v>
       </c>
       <c r="G26" s="4">
-        <v>9311</v>
+        <v>10422</v>
       </c>
       <c r="H26" s="4">
-        <v>9034</v>
+        <v>10148</v>
       </c>
       <c r="I26" s="4">
-        <v>8768</v>
+        <v>9729</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="5">
-        <v>11430</v>
+        <v>9696</v>
       </c>
       <c r="C27" s="5">
-        <v>11184</v>
+        <v>9378</v>
       </c>
       <c r="D27" s="5">
-        <v>11079</v>
+        <v>9335</v>
       </c>
       <c r="E27" s="5">
-        <v>11118</v>
+        <v>9604</v>
       </c>
       <c r="F27" s="5">
-        <v>10814</v>
+        <v>9488</v>
       </c>
       <c r="G27" s="5">
-        <v>10489</v>
+        <v>9311</v>
       </c>
       <c r="H27" s="5">
-        <v>10281</v>
+        <v>9034</v>
       </c>
       <c r="I27" s="5">
-        <v>9992</v>
+        <v>8768</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="4">
-        <v>9708</v>
+        <v>11430</v>
       </c>
       <c r="C28" s="4">
-        <v>9381</v>
+        <v>11184</v>
       </c>
       <c r="D28" s="4">
-        <v>9331</v>
+        <v>11079</v>
       </c>
       <c r="E28" s="4">
-        <v>9436</v>
+        <v>11118</v>
       </c>
       <c r="F28" s="4">
-        <v>9262</v>
+        <v>10814</v>
       </c>
       <c r="G28" s="4">
-        <v>9094</v>
+        <v>10489</v>
       </c>
       <c r="H28" s="4">
-        <v>8871</v>
+        <v>10281</v>
       </c>
       <c r="I28" s="4">
-        <v>8697</v>
+        <v>9992</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="5">
-        <v>10687</v>
+        <v>9708</v>
       </c>
       <c r="C29" s="5">
-        <v>10157</v>
+        <v>9381</v>
       </c>
       <c r="D29" s="5">
-        <v>10020</v>
+        <v>9331</v>
       </c>
       <c r="E29" s="5">
-        <v>10075</v>
+        <v>9436</v>
       </c>
       <c r="F29" s="5">
-        <v>9839</v>
+        <v>9262</v>
       </c>
       <c r="G29" s="5">
-        <v>9532</v>
+        <v>9094</v>
       </c>
       <c r="H29" s="5">
-        <v>9175</v>
+        <v>8871</v>
       </c>
       <c r="I29" s="5">
-        <v>9035</v>
+        <v>8697</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="4">
-        <v>9358</v>
+        <v>10687</v>
       </c>
       <c r="C30" s="4">
-        <v>9153</v>
+        <v>10157</v>
       </c>
       <c r="D30" s="4">
-        <v>9168</v>
+        <v>10020</v>
       </c>
       <c r="E30" s="4">
-        <v>9235</v>
+        <v>10075</v>
       </c>
       <c r="F30" s="4">
-        <v>9051</v>
+        <v>9839</v>
       </c>
       <c r="G30" s="4">
-        <v>8736</v>
+        <v>9532</v>
       </c>
       <c r="H30" s="4">
-        <v>8450</v>
+        <v>9175</v>
       </c>
       <c r="I30" s="4">
-        <v>8260</v>
+        <v>9035</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B31" s="5">
-        <v>8876</v>
+        <v>9358</v>
       </c>
       <c r="C31" s="5">
-        <v>8770</v>
+        <v>9153</v>
       </c>
       <c r="D31" s="5">
-        <v>8732</v>
+        <v>9168</v>
       </c>
       <c r="E31" s="5">
-        <v>8887</v>
+        <v>9235</v>
       </c>
       <c r="F31" s="5">
-        <v>8721</v>
+        <v>9051</v>
       </c>
       <c r="G31" s="5">
-        <v>8433</v>
+        <v>8736</v>
       </c>
       <c r="H31" s="5">
-        <v>8215</v>
+        <v>8450</v>
       </c>
       <c r="I31" s="5">
-        <v>8026</v>
+        <v>8260</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4">
-        <v>8398</v>
+        <v>8876</v>
       </c>
       <c r="C32" s="4">
-        <v>8140</v>
+        <v>8770</v>
       </c>
       <c r="D32" s="4">
-        <v>8032</v>
+        <v>8732</v>
       </c>
       <c r="E32" s="4">
-        <v>8308</v>
+        <v>8887</v>
       </c>
       <c r="F32" s="4">
-        <v>7980</v>
+        <v>8721</v>
       </c>
       <c r="G32" s="4">
-        <v>7792</v>
+        <v>8433</v>
       </c>
       <c r="H32" s="4">
-        <v>7545</v>
+        <v>8215</v>
       </c>
       <c r="I32" s="4">
-        <v>7423</v>
+        <v>8026</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B33" s="5">
-        <v>8101</v>
+        <v>8398</v>
       </c>
       <c r="C33" s="5">
-        <v>7929</v>
+        <v>8140</v>
       </c>
       <c r="D33" s="5">
-        <v>8086</v>
+        <v>8032</v>
       </c>
       <c r="E33" s="5">
-        <v>8125</v>
+        <v>8308</v>
       </c>
       <c r="F33" s="5">
-        <v>7816</v>
+        <v>7980</v>
       </c>
       <c r="G33" s="5">
-        <v>7493</v>
+        <v>7792</v>
       </c>
       <c r="H33" s="5">
-        <v>7175</v>
+        <v>7545</v>
       </c>
       <c r="I33" s="5">
-        <v>7064</v>
+        <v>7423</v>
       </c>
     </row>
     <row r="34" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4">
+        <v>8101</v>
+      </c>
+      <c r="C34" s="4">
+        <v>7929</v>
+      </c>
+      <c r="D34" s="4">
+        <v>8086</v>
+      </c>
+      <c r="E34" s="4">
+        <v>8125</v>
+      </c>
+      <c r="F34" s="4">
+        <v>7816</v>
+      </c>
+      <c r="G34" s="4">
+        <v>7493</v>
+      </c>
+      <c r="H34" s="4">
+        <v>7175</v>
+      </c>
+      <c r="I34" s="4">
+        <v>7064</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B35" s="5">
         <v>7146</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C35" s="5">
         <v>6955</v>
       </c>
-      <c r="D34" s="4">
+      <c r="D35" s="5">
         <v>6954</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E35" s="5">
         <v>7336</v>
       </c>
-      <c r="F34" s="4">
+      <c r="F35" s="5">
         <v>7159</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G35" s="5">
         <v>6996</v>
       </c>
-      <c r="H34" s="4">
+      <c r="H35" s="5">
         <v>6637</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I35" s="5">
         <v>6469</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="36" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
